--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,61 +1107,61 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,61 +1203,61 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>1337</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,93 +1949,93 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>1767</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:25</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235959191.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上机数控10月14日被沪股通减持10.5万股</t>
+          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-15 08:01</t>
+          <t>10-17 09:58</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1235513012.html</t>
+          <t>/news,603185,1235716836.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
+          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1235509828.html</t>
+          <t>/news,603185,1235580324.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控10月13日被沪股通减持52.04万股</t>
+          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-14 07:54</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1235082907.html</t>
+          <t>/news,603185,1235576081.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
+          <t>上机数控10月14日被沪股通减持10.5万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-14 07:32</t>
+          <t>10-15 08:01</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1235079394.html</t>
+          <t>/news,603185,1235513012.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控10月12日被沪股通减持88.92万股</t>
+          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-13 07:59</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1234647366.html</t>
+          <t>/news,603185,1235509828.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
+          <t>上机数控10月13日被沪股通减持52.04万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-13 07:41</t>
+          <t>10-14 07:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1234644441.html</t>
+          <t>/news,603185,1235082907.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
+          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-12 21:38</t>
+          <t>10-14 07:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1234578361.html</t>
+          <t>/news,603185,1235079394.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控10月11日获沪股通增持41.19万股</t>
+          <t>上机数控10月12日被沪股通减持88.92万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-12 07:44</t>
+          <t>10-13 07:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1234212012.html</t>
+          <t>/news,603185,1234647366.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
+          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1234209645.html</t>
+          <t>/news,603185,1234644441.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控10月10日获沪股通增持203.3万股</t>
+          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-11 07:55</t>
+          <t>10-12 21:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1233837918.html</t>
+          <t>/news,603185,1234578361.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
+          <t>上机数控10月11日获沪股通增持41.19万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-11 07:32</t>
+          <t>10-12 07:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1233833876.html</t>
+          <t>/news,603185,1234212012.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
+          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-10 17:41</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1233719048.html</t>
+          <t>/news,603185,1234209645.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
+          <t>上机数控10月10日获沪股通增持203.3万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-10 16:36</t>
+          <t>10-11 07:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1233700505.html</t>
+          <t>/news,603185,1233837918.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”第三季度转股约367万股</t>
+          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-11 07:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1233698088.html</t>
+          <t>/news,603185,1233833876.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>864</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
+          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-10 14:37</t>
+          <t>10-10 17:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1233637088.html</t>
+          <t>/news,603185,1233719048.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国联证券给予上机数控买入评级 业绩表现优于预期 一体化加速成长 目标价208.16元</t>
+          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,221 +2525,221 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-10 12:32</t>
+          <t>10-10 16:36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1233552215.html</t>
+          <t>/news,603185,1233700505.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国联证券维持上机数控买入评级 目标价208.16元</t>
+          <t>上机数控：“上22转债”第三季度转股约367万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-10 12:23</t>
+          <t>10-10 16:26</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1233549148.html</t>
+          <t>/news,603185,1233698088.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东吴证券给予上机数控买入评级</t>
+          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-10 09:22</t>
+          <t>10-10 14:37</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1233413698.html</t>
+          <t>/news,603185,1233637088.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东吴证券维持上机数控买入评级 目标价192元</t>
+          <t>国联证券给予上机数控买入评级 业绩表现优于预期 一体化加速成长 目标价208.16元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-10 09:03</t>
+          <t>10-10 12:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1233387306.html</t>
+          <t>/news,603185,1233552215.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 业绩大超预期 迈向一体化程度最高、成本最低的光伏龙头之一</t>
+          <t>国联证券维持上机数控买入评级 目标价208.16元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-10 08:46</t>
+          <t>10-10 12:23</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1233385314.html</t>
+          <t>/news,603185,1233549148.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>东吴证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-10 08:37</t>
+          <t>10-10 09:22</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1233384142.html</t>
+          <t>/news,603185,1233413698.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>单季净利创历史新高！500亿硅片新贵前三季度业绩同比翻倍 机构却称行业竞争格局进一步恶化</t>
+          <t>东吴证券维持上机数控买入评级 目标价192元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 22:15</t>
+          <t>10-10 09:03</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1233359973.html</t>
+          <t>/news,603185,1233387306.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>24270</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>A股三季报披露大幕拉开！上机数控、康缘药业率先披露 72家公司业绩预喜</t>
+          <t>浙商证券给予上机数控买入评级 业绩大超预期 迈向一体化程度最高、成本最低的光伏龙头之一</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 22:06</t>
+          <t>10-10 08:46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1233358780.html</t>
+          <t>/news,603185,1233385314.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>两市首份三季报曝光公募卫冕冠军最新动向 年内尚亏20%的崔宸龙四季度能否迎来柳暗花明？</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 21:39</t>
+          <t>10-10 08:37</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1233356596.html</t>
+          <t>/news,603185,1233384142.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>上机数控前三季净利润同比增长101.43%</t>
+          <t>单季净利创历史新高！500亿硅片新贵前三季度业绩同比翻倍 机构却称行业竞争格局进一步恶化</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 20:46</t>
+          <t>10-09 22:15</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1233350409.html</t>
+          <t>/news,603185,1233359973.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>24272</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>两市首份三季报出炉：上机数控前三季度业绩已超去年全年</t>
+          <t>A股三季报披露大幕拉开！上机数控、康缘药业率先披露 72家公司业绩预喜</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 20:07</t>
+          <t>10-09 22:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1233346252.html</t>
+          <t>/news,603185,1233358780.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>两市首份三季报出炉 上机数控营收净利双双翻倍</t>
+          <t>两市首份三季报曝光公募卫冕冠军最新动向 年内尚亏20%的崔宸龙四季度能否迎来柳暗花明？</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 18:51</t>
+          <t>10-09 21:39</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1233340216.html</t>
+          <t>/news,603185,1233356596.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A股首批三季报亮相  其中上机数控净利翻番 如何挖掘三季报行情</t>
+          <t>上机数控前三季净利润同比增长101.43%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 18:36</t>
+          <t>10-09 20:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1233339203.html</t>
+          <t>/news,603185,1233350409.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>单季度暴赚12亿 上机数控三季报业绩同比增长101.43%</t>
+          <t>两市首份三季报出炉：上机数控前三季度业绩已超去年全年</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 18:01</t>
+          <t>10-09 20:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1233336756.html</t>
+          <t>/news,603185,1233346252.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>上机数控：前三季度归母净利润28.31亿元 同比增101.43%</t>
+          <t>两市首份三季报出炉 上机数控营收净利双双翻倍</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 16:44</t>
+          <t>10-09 18:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1233331142.html</t>
+          <t>/news,603185,1233340216.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A股首份三季报出炉 上机数控前三季度实现归属净利润28.31亿元</t>
+          <t>A股首批三季报亮相  其中上机数控净利翻番 如何挖掘三季报行情</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 16:38</t>
+          <t>10-09 18:36</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1233330424.html</t>
+          <t>/news,603185,1233339203.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,12 +477,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
@@ -494,12 +494,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,93 +723,93 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,54 +1171,54 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1337</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1986,24 +1986,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,157 +2045,157 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>1767</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 18:25</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235959191.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 09:58</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235716836.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控10月14日被沪股通减持10.5万股</t>
+          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-15 08:01</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1235513012.html</t>
+          <t>/news,603185,1235580324.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
+          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1235509828.html</t>
+          <t>/news,603185,1235576081.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控10月13日被沪股通减持52.04万股</t>
+          <t>上机数控10月14日被沪股通减持10.5万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-14 07:54</t>
+          <t>10-15 08:01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1235082907.html</t>
+          <t>/news,603185,1235513012.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
+          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-14 07:32</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1235079394.html</t>
+          <t>/news,603185,1235509828.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控10月12日被沪股通减持88.92万股</t>
+          <t>上机数控10月13日被沪股通减持52.04万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-13 07:59</t>
+          <t>10-14 07:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1234647366.html</t>
+          <t>/news,603185,1235082907.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
+          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-13 07:41</t>
+          <t>10-14 07:32</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1234644441.html</t>
+          <t>/news,603185,1235079394.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
+          <t>上机数控10月12日被沪股通减持88.92万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-12 21:38</t>
+          <t>10-13 07:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1234578361.html</t>
+          <t>/news,603185,1234647366.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控10月11日获沪股通增持41.19万股</t>
+          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-12 07:44</t>
+          <t>10-13 07:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1234212012.html</t>
+          <t>/news,603185,1234644441.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
+          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-12 21:38</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1234209645.html</t>
+          <t>/news,603185,1234578361.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控10月10日获沪股通增持203.3万股</t>
+          <t>上机数控10月11日获沪股通增持41.19万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-11 07:55</t>
+          <t>10-12 07:44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1233837918.html</t>
+          <t>/news,603185,1234212012.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
+          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-11 07:32</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1233833876.html</t>
+          <t>/news,603185,1234209645.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
+          <t>上机数控10月10日获沪股通增持203.3万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-10 17:41</t>
+          <t>10-11 07:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1233719048.html</t>
+          <t>/news,603185,1233837918.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
+          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-10 16:36</t>
+          <t>10-11 07:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1233700505.html</t>
+          <t>/news,603185,1233833876.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>865</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”第三季度转股约367万股</t>
+          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-10 17:41</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1233698088.html</t>
+          <t>/news,603185,1233719048.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
+          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-10 14:37</t>
+          <t>10-10 16:36</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1233637088.html</t>
+          <t>/news,603185,1233700505.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国联证券给予上机数控买入评级 业绩表现优于预期 一体化加速成长 目标价208.16元</t>
+          <t>上机数控：“上22转债”第三季度转股约367万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-10 12:32</t>
+          <t>10-10 16:26</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1233552215.html</t>
+          <t>/news,603185,1233698088.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国联证券维持上机数控买入评级 目标价208.16元</t>
+          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-10 12:23</t>
+          <t>10-10 14:37</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1233549148.html</t>
+          <t>/news,603185,1233637088.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东吴证券给予上机数控买入评级</t>
+          <t>国联证券给予上机数控买入评级 业绩表现优于预期 一体化加速成长 目标价208.16元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-10 09:22</t>
+          <t>10-10 12:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1233413698.html</t>
+          <t>/news,603185,1233552215.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东吴证券维持上机数控买入评级 目标价192元</t>
+          <t>国联证券维持上机数控买入评级 目标价208.16元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-10 09:03</t>
+          <t>10-10 12:23</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1233387306.html</t>
+          <t>/news,603185,1233549148.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 业绩大超预期 迈向一体化程度最高、成本最低的光伏龙头之一</t>
+          <t>东吴证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-10 08:46</t>
+          <t>10-10 09:22</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1233385314.html</t>
+          <t>/news,603185,1233413698.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>东吴证券维持上机数控买入评级 目标价192元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-10 08:37</t>
+          <t>10-10 09:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1233384142.html</t>
+          <t>/news,603185,1233387306.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>单季净利创历史新高！500亿硅片新贵前三季度业绩同比翻倍 机构却称行业竞争格局进一步恶化</t>
+          <t>浙商证券给予上机数控买入评级 业绩大超预期 迈向一体化程度最高、成本最低的光伏龙头之一</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 22:15</t>
+          <t>10-10 08:46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1233359973.html</t>
+          <t>/news,603185,1233385314.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>24272</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A股三季报披露大幕拉开！上机数控、康缘药业率先披露 72家公司业绩预喜</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 22:06</t>
+          <t>10-10 08:37</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1233358780.html</t>
+          <t>/news,603185,1233384142.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>两市首份三季报曝光公募卫冕冠军最新动向 年内尚亏20%的崔宸龙四季度能否迎来柳暗花明？</t>
+          <t>单季净利创历史新高！500亿硅片新贵前三季度业绩同比翻倍 机构却称行业竞争格局进一步恶化</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 21:39</t>
+          <t>10-09 22:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1233356596.html</t>
+          <t>/news,603185,1233359973.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>24276</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>上机数控前三季净利润同比增长101.43%</t>
+          <t>A股三季报披露大幕拉开！上机数控、康缘药业率先披露 72家公司业绩预喜</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 20:46</t>
+          <t>10-09 22:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1233350409.html</t>
+          <t>/news,603185,1233358780.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>两市首份三季报出炉：上机数控前三季度业绩已超去年全年</t>
+          <t>两市首份三季报曝光公募卫冕冠军最新动向 年内尚亏20%的崔宸龙四季度能否迎来柳暗花明？</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 20:07</t>
+          <t>10-09 21:39</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1233346252.html</t>
+          <t>/news,603185,1233356596.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>两市首份三季报出炉 上机数控营收净利双双翻倍</t>
+          <t>上机数控前三季净利润同比增长101.43%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 18:51</t>
+          <t>10-09 20:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1233340216.html</t>
+          <t>/news,603185,1233350409.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A股首批三季报亮相  其中上机数控净利翻番 如何挖掘三季报行情</t>
+          <t>两市首份三季报出炉：上机数控前三季度业绩已超去年全年</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 18:36</t>
+          <t>10-09 20:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1233339203.html</t>
+          <t>/news,603185,1233346252.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>982</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,51 +509,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,71 +563,71 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,61 +1267,61 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,61 +1523,61 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,93 +2109,93 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控10月14日被沪股通减持10.5万股</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-15 08:01</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1235513012.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1235509828.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控10月13日被沪股通减持52.04万股</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-14 07:54</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1235082907.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-14 07:32</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1235079394.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>1773</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控10月12日被沪股通减持88.92万股</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-13 07:59</t>
+          <t>10-17 18:25</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1234647366.html</t>
+          <t>/news,603185,1235959191.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
+          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-13 07:41</t>
+          <t>10-17 09:58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1234644441.html</t>
+          <t>/news,603185,1235716836.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
+          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-12 21:38</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1234578361.html</t>
+          <t>/news,603185,1235580324.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控10月11日获沪股通增持41.19万股</t>
+          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-12 07:44</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1234212012.html</t>
+          <t>/news,603185,1235576081.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
+          <t>上机数控10月14日被沪股通减持10.5万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-15 08:01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1234209645.html</t>
+          <t>/news,603185,1235513012.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控10月10日获沪股通增持203.3万股</t>
+          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-11 07:55</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1233837918.html</t>
+          <t>/news,603185,1235509828.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
+          <t>上机数控10月13日被沪股通减持52.04万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-11 07:32</t>
+          <t>10-14 07:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1233833876.html</t>
+          <t>/news,603185,1235082907.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
+          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-10 17:41</t>
+          <t>10-14 07:32</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1233719048.html</t>
+          <t>/news,603185,1235079394.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
+          <t>上机数控10月12日被沪股通减持88.92万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-10 16:36</t>
+          <t>10-13 07:59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1233700505.html</t>
+          <t>/news,603185,1234647366.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”第三季度转股约367万股</t>
+          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-13 07:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1233698088.html</t>
+          <t>/news,603185,1234644441.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
+          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-10 14:37</t>
+          <t>10-12 21:38</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1233637088.html</t>
+          <t>/news,603185,1234578361.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国联证券给予上机数控买入评级 业绩表现优于预期 一体化加速成长 目标价208.16元</t>
+          <t>上机数控10月11日获沪股通增持41.19万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-10 12:32</t>
+          <t>10-12 07:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1233552215.html</t>
+          <t>/news,603185,1234212012.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国联证券维持上机数控买入评级 目标价208.16元</t>
+          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-10 12:23</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1233549148.html</t>
+          <t>/news,603185,1234209645.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东吴证券给予上机数控买入评级</t>
+          <t>上机数控10月10日获沪股通增持203.3万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-10 09:22</t>
+          <t>10-11 07:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1233413698.html</t>
+          <t>/news,603185,1233837918.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东吴证券维持上机数控买入评级 目标价192元</t>
+          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-10 09:03</t>
+          <t>10-11 07:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1233387306.html</t>
+          <t>/news,603185,1233833876.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 业绩大超预期 迈向一体化程度最高、成本最低的光伏龙头之一</t>
+          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-10 08:46</t>
+          <t>10-10 17:41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1233385314.html</t>
+          <t>/news,603185,1233719048.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-10 08:37</t>
+          <t>10-10 16:36</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1233384142.html</t>
+          <t>/news,603185,1233700505.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>单季净利创历史新高！500亿硅片新贵前三季度业绩同比翻倍 机构却称行业竞争格局进一步恶化</t>
+          <t>上机数控：“上22转债”第三季度转股约367万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 22:15</t>
+          <t>10-10 16:26</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1233359973.html</t>
+          <t>/news,603185,1233698088.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>24276</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A股三季报披露大幕拉开！上机数控、康缘药业率先披露 72家公司业绩预喜</t>
+          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 22:06</t>
+          <t>10-10 14:37</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1233358780.html</t>
+          <t>/news,603185,1233637088.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>643</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>两市首份三季报曝光公募卫冕冠军最新动向 年内尚亏20%的崔宸龙四季度能否迎来柳暗花明？</t>
+          <t>国联证券给予上机数控买入评级 业绩表现优于预期 一体化加速成长 目标价208.16元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 21:39</t>
+          <t>10-10 12:32</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1233356596.html</t>
+          <t>/news,603185,1233552215.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>上机数控前三季净利润同比增长101.43%</t>
+          <t>国联证券维持上机数控买入评级 目标价208.16元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 20:46</t>
+          <t>10-10 12:23</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1233350409.html</t>
+          <t>/news,603185,1233549148.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>两市首份三季报出炉：上机数控前三季度业绩已超去年全年</t>
+          <t>东吴证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 20:07</t>
+          <t>10-10 09:22</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1233346252.html</t>
+          <t>/news,603185,1233413698.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月07日获沪股通增持169.09万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 15:53</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1243826687.html</t>
+          <t>/news,603185,1243976549.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级</t>
+          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,147 +509,147 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-07 11:33</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1243689028.html</t>
+          <t>/news,603185,1243971766.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 11:11</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1243666187.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1243413280.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1243404444.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控11月04日获沪股通增持132.99万股</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1243320027.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
+          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1243316370.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3466</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 17:18</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1243220718.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,93 +1043,93 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,54 +1491,54 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1773</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,157 +2365,157 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 18:25</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235959191.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 09:58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235716836.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控10月14日被沪股通减持10.5万股</t>
+          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-15 08:01</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1235513012.html</t>
+          <t>/news,603185,1235580324.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
+          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1235509828.html</t>
+          <t>/news,603185,1235576081.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上机数控10月13日被沪股通减持52.04万股</t>
+          <t>上机数控10月14日被沪股通减持10.5万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 07:54</t>
+          <t>10-15 08:01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1235082907.html</t>
+          <t>/news,603185,1235513012.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
+          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-14 07:32</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1235079394.html</t>
+          <t>/news,603185,1235509828.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控10月12日被沪股通减持88.92万股</t>
+          <t>上机数控10月13日被沪股通减持52.04万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-13 07:59</t>
+          <t>10-14 07:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1234647366.html</t>
+          <t>/news,603185,1235082907.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
+          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-13 07:41</t>
+          <t>10-14 07:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1234644441.html</t>
+          <t>/news,603185,1235079394.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
+          <t>上机数控10月12日被沪股通减持88.92万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-12 21:38</t>
+          <t>10-13 07:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1234578361.html</t>
+          <t>/news,603185,1234647366.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>上机数控10月11日获沪股通增持41.19万股</t>
+          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-12 07:44</t>
+          <t>10-13 07:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1234212012.html</t>
+          <t>/news,603185,1234644441.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
+          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-12 21:38</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1234209645.html</t>
+          <t>/news,603185,1234578361.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>上机数控10月10日获沪股通增持203.3万股</t>
+          <t>上机数控10月11日获沪股通增持41.19万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-11 07:55</t>
+          <t>10-12 07:44</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1233837918.html</t>
+          <t>/news,603185,1234212012.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
+          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-11 07:32</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1233833876.html</t>
+          <t>/news,603185,1234209645.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
+          <t>上机数控10月10日获沪股通增持203.3万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-10 17:41</t>
+          <t>10-11 07:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1233719048.html</t>
+          <t>/news,603185,1233837918.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
+          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-10 16:36</t>
+          <t>10-11 07:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1233700505.html</t>
+          <t>/news,603185,1233833876.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”第三季度转股约367万股</t>
+          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-10 17:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1233698088.html</t>
+          <t>/news,603185,1233719048.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
+          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 14:37</t>
+          <t>10-10 16:36</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1233637088.html</t>
+          <t>/news,603185,1233700505.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国联证券给予上机数控买入评级 业绩表现优于预期 一体化加速成长 目标价208.16元</t>
+          <t>上机数控：“上22转债”第三季度转股约367万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 12:32</t>
+          <t>10-10 16:26</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1233552215.html</t>
+          <t>/news,603185,1233698088.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国联证券维持上机数控买入评级 目标价208.16元</t>
+          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-10 12:23</t>
+          <t>10-10 14:37</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1233549148.html</t>
+          <t>/news,603185,1233637088.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东吴证券给予上机数控买入评级</t>
+          <t>国联证券给予上机数控买入评级 业绩表现优于预期 一体化加速成长 目标价208.16元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 09:22</t>
+          <t>10-10 12:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1233413698.html</t>
+          <t>/news,603185,1233552215.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控11月07日获沪股通增持169.09万股</t>
+          <t>上机数控：疫情对公司生产经营影响较小</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-08 13:29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1243976549.html</t>
+          <t>/news,603185,1244191455.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
+          <t>上机数控11月07日获沪股通增持169.09万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1243971766.html</t>
+          <t>/news,603185,1243976549.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 15:53</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1243826687.html</t>
+          <t>/news,603185,1243971766.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,83 +573,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 11:33</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1243689028.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1840</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-07 11:11</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1243666187.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1243413280.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,71 +659,71 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1243404444.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控11月04日获沪股通增持132.99万股</t>
+          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1243320027.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1243316370.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3527</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 17:18</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1243220718.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,71 +1139,71 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2338,24 +2338,24 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2370,24 +2370,24 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 18:25</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235959191.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 09:58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235716836.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,71 +2483,71 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235580324.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上机数控10月14日被沪股通减持10.5万股</t>
+          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-15 08:01</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1235513012.html</t>
+          <t>/news,603185,1235576081.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
+          <t>上机数控10月14日被沪股通减持10.5万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-15 08:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1235509828.html</t>
+          <t>/news,603185,1235513012.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控10月13日被沪股通减持52.04万股</t>
+          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-14 07:54</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1235082907.html</t>
+          <t>/news,603185,1235509828.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
+          <t>上机数控10月13日被沪股通减持52.04万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-14 07:32</t>
+          <t>10-14 07:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1235079394.html</t>
+          <t>/news,603185,1235082907.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>上机数控10月12日被沪股通减持88.92万股</t>
+          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-13 07:59</t>
+          <t>10-14 07:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1234647366.html</t>
+          <t>/news,603185,1235079394.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
+          <t>上机数控10月12日被沪股通减持88.92万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-13 07:41</t>
+          <t>10-13 07:59</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1234644441.html</t>
+          <t>/news,603185,1234647366.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
+          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-12 21:38</t>
+          <t>10-13 07:41</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1234578361.html</t>
+          <t>/news,603185,1234644441.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>上机数控10月11日获沪股通增持41.19万股</t>
+          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-12 07:44</t>
+          <t>10-12 21:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1234212012.html</t>
+          <t>/news,603185,1234578361.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
+          <t>上机数控10月11日获沪股通增持41.19万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-12 07:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1234209645.html</t>
+          <t>/news,603185,1234212012.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>上机数控10月10日获沪股通增持203.3万股</t>
+          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-11 07:55</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1233837918.html</t>
+          <t>/news,603185,1234209645.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
+          <t>上机数控10月10日获沪股通增持203.3万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-11 07:32</t>
+          <t>10-11 07:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1233833876.html</t>
+          <t>/news,603185,1233837918.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
+          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-10 17:41</t>
+          <t>10-11 07:32</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1233719048.html</t>
+          <t>/news,603185,1233833876.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
+          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 16:36</t>
+          <t>10-10 17:41</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1233700505.html</t>
+          <t>/news,603185,1233719048.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”第三季度转股约367万股</t>
+          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-10 16:36</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1233698088.html</t>
+          <t>/news,603185,1233700505.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
+          <t>上机数控：“上22转债”第三季度转股约367万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-10 14:37</t>
+          <t>10-10 16:26</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1233637088.html</t>
+          <t>/news,603185,1233698088.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国联证券给予上机数控买入评级 业绩表现优于预期 一体化加速成长 目标价208.16元</t>
+          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 12:32</t>
+          <t>10-10 14:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1233552215.html</t>
+          <t>/news,603185,1233637088.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控：疫情对公司生产经营影响较小</t>
+          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 13:29</t>
+          <t>11-09 07:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1244191455.html</t>
+          <t>/news,603185,1244428765.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控11月07日获沪股通增持169.09万股</t>
+          <t>上机数控11月08日获沪股通增持73.86万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1243976549.html</t>
+          <t>/news,603185,1244426219.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>1544</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
+          <t>上机数控：疫情对公司生产经营影响较小</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-08 13:29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1243971766.html</t>
+          <t>/news,603185,1244191455.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月07日获沪股通增持169.09万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 15:53</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1243826687.html</t>
+          <t>/news,603185,1243976549.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级</t>
+          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,147 +605,147 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-07 11:33</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1243689028.html</t>
+          <t>/news,603185,1243971766.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 11:11</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1243666187.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1243413280.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1243404444.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控11月04日获沪股通增持132.99万股</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1243320027.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
+          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1243316370.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3532</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 17:18</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1243220718.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,93 +1139,93 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,54 +1587,54 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2402,24 +2402,24 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,157 +2461,157 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 18:25</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235959191.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 09:58</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235716836.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控10月14日被沪股通减持10.5万股</t>
+          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-15 08:01</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1235513012.html</t>
+          <t>/news,603185,1235580324.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
+          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1235509828.html</t>
+          <t>/news,603185,1235576081.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控10月13日被沪股通减持52.04万股</t>
+          <t>上机数控10月14日被沪股通减持10.5万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-14 07:54</t>
+          <t>10-15 08:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1235082907.html</t>
+          <t>/news,603185,1235513012.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
+          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-14 07:32</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1235079394.html</t>
+          <t>/news,603185,1235509828.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>上机数控10月12日被沪股通减持88.92万股</t>
+          <t>上机数控10月13日被沪股通减持52.04万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-13 07:59</t>
+          <t>10-14 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1234647366.html</t>
+          <t>/news,603185,1235082907.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
+          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-13 07:41</t>
+          <t>10-14 07:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1234644441.html</t>
+          <t>/news,603185,1235079394.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
+          <t>上机数控10月12日被沪股通减持88.92万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-12 21:38</t>
+          <t>10-13 07:59</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1234578361.html</t>
+          <t>/news,603185,1234647366.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>上机数控10月11日获沪股通增持41.19万股</t>
+          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 07:44</t>
+          <t>10-13 07:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1234212012.html</t>
+          <t>/news,603185,1234644441.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
+          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-12 21:38</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1234209645.html</t>
+          <t>/news,603185,1234578361.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>上机数控10月10日获沪股通增持203.3万股</t>
+          <t>上机数控10月11日获沪股通增持41.19万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-11 07:55</t>
+          <t>10-12 07:44</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1233837918.html</t>
+          <t>/news,603185,1234212012.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
+          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-11 07:32</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1233833876.html</t>
+          <t>/news,603185,1234209645.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
+          <t>上机数控10月10日获沪股通增持203.3万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 17:41</t>
+          <t>10-11 07:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1233719048.html</t>
+          <t>/news,603185,1233837918.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
+          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 16:36</t>
+          <t>10-11 07:32</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1233700505.html</t>
+          <t>/news,603185,1233833876.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”第三季度转股约367万股</t>
+          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-10 17:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1233698088.html</t>
+          <t>/news,603185,1233719048.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华泰证券维持上机数控买入评级 目标价208.04元</t>
+          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 14:37</t>
+          <t>10-10 16:36</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1233637088.html</t>
+          <t>/news,603185,1233700505.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
+          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 07:53</t>
+          <t>11-10 07:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1244428765.html</t>
+          <t>/news,603185,1244891463.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控11月08日获沪股通增持73.86万股</t>
+          <t>上机数控11月09日被沪股通减持13.33万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 07:39</t>
+          <t>11-10 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1244426219.html</t>
+          <t>/news,603185,1244891160.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1544</t>
+          <t>19171</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控：疫情对公司生产经营影响较小</t>
+          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 13:29</t>
+          <t>11-09 20:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1244191455.html</t>
+          <t>/news,603185,1244834895.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控11月07日获沪股通增持169.09万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 16:01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1243976549.html</t>
+          <t>/news,603185,1244759948.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
+          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1243971766.html</t>
+          <t>/news,603185,1244428765.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月08日获沪股通增持73.86万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 15:53</t>
+          <t>11-09 07:39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1243826687.html</t>
+          <t>/news,603185,1244426219.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级</t>
+          <t>上机数控：疫情对公司生产经营影响较小</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 11:33</t>
+          <t>11-08 13:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1243689028.html</t>
+          <t>/news,603185,1244191455.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控11月07日获沪股通增持169.09万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-07 11:11</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1243666187.html</t>
+          <t>/news,603185,1243976549.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,71 +723,71 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
+          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1243413280.html</t>
+          <t>/news,603185,1243971766.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>877</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1243404444.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控11月04日获沪股通增持132.99万股</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,83 +797,83 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1243320027.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1243316370.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3550</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 17:18</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1243220718.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,71 +1203,71 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,24 +1277,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,61 +1779,61 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>726</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,61 +2205,61 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,93 +2525,93 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>1780</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控10月14日被沪股通减持10.5万股</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-15 08:01</t>
+          <t>10-17 18:25</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1235513012.html</t>
+          <t>/news,603185,1235959191.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
+          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-17 09:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1235509828.html</t>
+          <t>/news,603185,1235716836.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>上机数控10月13日被沪股通减持52.04万股</t>
+          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 07:54</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1235082907.html</t>
+          <t>/news,603185,1235580324.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
+          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-14 07:32</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1235079394.html</t>
+          <t>/news,603185,1235576081.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>上机数控10月12日被沪股通减持88.92万股</t>
+          <t>上机数控10月14日被沪股通减持10.5万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 07:59</t>
+          <t>10-15 08:01</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1234647366.html</t>
+          <t>/news,603185,1235513012.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
+          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-13 07:41</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1234644441.html</t>
+          <t>/news,603185,1235509828.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
+          <t>上机数控10月13日被沪股通减持52.04万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 21:38</t>
+          <t>10-14 07:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1234578361.html</t>
+          <t>/news,603185,1235082907.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>上机数控10月11日获沪股通增持41.19万股</t>
+          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-12 07:44</t>
+          <t>10-14 07:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1234212012.html</t>
+          <t>/news,603185,1235079394.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
+          <t>上机数控10月12日被沪股通减持88.92万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:59</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1234209645.html</t>
+          <t>/news,603185,1234647366.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>上机数控10月10日获沪股通增持203.3万股</t>
+          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 07:55</t>
+          <t>10-13 07:41</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1233837918.html</t>
+          <t>/news,603185,1234644441.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入2295.66万元，融资余额15.35亿元（10-10）</t>
+          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-11 07:32</t>
+          <t>10-12 21:38</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1233833876.html</t>
+          <t>/news,603185,1234578361.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A股首份三季报出炉 上机数控业绩同比翻倍</t>
+          <t>上机数控10月11日获沪股通增持41.19万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-10 17:41</t>
+          <t>10-12 07:44</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1233719048.html</t>
+          <t>/news,603185,1234212012.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>上机数控股东户数增加123户，户均持股99.77万元</t>
+          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 16:36</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1233700505.html</t>
+          <t>/news,603185,1234209645.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
+          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 07:51</t>
+          <t>11-11 07:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1244891463.html</t>
+          <t>/news,603185,1245411139.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控11月09日被沪股通减持13.33万股</t>
+          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:50</t>
+          <t>11-10 07:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1244891160.html</t>
+          <t>/news,603185,1244891463.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19171</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
+          <t>上机数控11月09日被沪股通减持13.33万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 20:56</t>
+          <t>11-10 07:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1244834895.html</t>
+          <t>/news,603185,1244891160.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>19777</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 16:01</t>
+          <t>11-09 20:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1244759948.html</t>
+          <t>/news,603185,1244834895.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>950</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 07:53</t>
+          <t>11-09 16:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1244428765.html</t>
+          <t>/news,603185,1244759948.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控11月08日获沪股通增持73.86万股</t>
+          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 07:39</t>
+          <t>11-09 07:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1244426219.html</t>
+          <t>/news,603185,1244428765.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控：疫情对公司生产经营影响较小</t>
+          <t>上机数控11月08日获沪股通增持73.86万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 13:29</t>
+          <t>11-09 07:39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1244191455.html</t>
+          <t>/news,603185,1244426219.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控11月07日获沪股通增持169.09万股</t>
+          <t>上机数控：疫情对公司生产经营影响较小</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-08 13:29</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1243976549.html</t>
+          <t>/news,603185,1244191455.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
+          <t>上机数控11月07日获沪股通增持169.09万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1243971766.html</t>
+          <t>/news,603185,1243976549.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-07 15:53</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1243826687.html</t>
+          <t>/news,603185,1243971766.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>907</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,83 +797,83 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 11:33</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1243689028.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>2068</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-07 11:11</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1243666187.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1243413280.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,71 +883,71 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1243404444.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控11月04日获沪股通增持132.99万股</t>
+          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1243320027.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1243316370.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3586</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 17:18</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1243220718.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,71 +1363,71 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>707</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>728</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>1416</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2562,24 +2562,24 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2594,24 +2594,24 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>1781</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 18:25</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235959191.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 09:58</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235716836.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,71 +2707,71 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235580324.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>上机数控10月14日被沪股通减持10.5万股</t>
+          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-15 08:01</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1235513012.html</t>
+          <t>/news,603185,1235576081.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
+          <t>上机数控10月14日被沪股通减持10.5万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-15 08:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1235509828.html</t>
+          <t>/news,603185,1235513012.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>上机数控10月13日被沪股通减持52.04万股</t>
+          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-14 07:54</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1235082907.html</t>
+          <t>/news,603185,1235509828.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
+          <t>上机数控10月13日被沪股通减持52.04万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-14 07:32</t>
+          <t>10-14 07:54</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1235079394.html</t>
+          <t>/news,603185,1235082907.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上机数控10月12日被沪股通减持88.92万股</t>
+          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-13 07:59</t>
+          <t>10-14 07:32</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1234647366.html</t>
+          <t>/news,603185,1235079394.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
+          <t>上机数控10月12日被沪股通减持88.92万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 07:41</t>
+          <t>10-13 07:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1234644441.html</t>
+          <t>/news,603185,1234647366.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
+          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 21:38</t>
+          <t>10-13 07:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1234578361.html</t>
+          <t>/news,603185,1234644441.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>上机数控10月11日获沪股通增持41.19万股</t>
+          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-12 07:44</t>
+          <t>10-12 21:38</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1234212012.html</t>
+          <t>/news,603185,1234578361.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入804.32万元，融资余额15.43亿元（10-11）</t>
+          <t>上机数控10月11日获沪股通增持41.19万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-12 07:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1234209645.html</t>
+          <t>/news,603185,1234212012.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
+          <t>上机数控本周融资净买入3085.74万元，居光伏设备板块第十</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 07:42</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1245411139.html</t>
+          <t>/news,603185,1246100411.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
+          <t>上机数控本周沪股通持股市值增加2.85亿元，居光伏设备板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:51</t>
+          <t>11-13 14:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1244891463.html</t>
+          <t>/news,603185,1246094351.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控11月09日被沪股通减持13.33万股</t>
+          <t>上机数控11月11日被沪股通减持35.38万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 07:50</t>
+          <t>11-12 07:42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1244891160.html</t>
+          <t>/news,603185,1245985691.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19777</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
+          <t>上机数控：连续4日融资净买入累计1.33亿元（11-11）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,24 +573,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 20:56</t>
+          <t>11-12 07:35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1244834895.html</t>
+          <t>/news,603185,1245984760.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 16:01</t>
+          <t>11-11 17:57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1244759948.html</t>
+          <t>/news,603185,1245892211.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
+          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 07:53</t>
+          <t>11-11 07:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1244428765.html</t>
+          <t>/news,603185,1245411139.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控11月08日获沪股通增持73.86万股</t>
+          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-09 07:39</t>
+          <t>11-10 07:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1244426219.html</t>
+          <t>/news,603185,1244891463.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控：疫情对公司生产经营影响较小</t>
+          <t>上机数控11月09日被沪股通减持13.33万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-08 13:29</t>
+          <t>11-10 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1244191455.html</t>
+          <t>/news,603185,1244891160.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>19960</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控11月07日获沪股通增持169.09万股</t>
+          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 20:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1243976549.html</t>
+          <t>/news,603185,1244834895.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 16:01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1243971766.html</t>
+          <t>/news,603185,1244759948.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 15:53</t>
+          <t>11-09 07:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1243826687.html</t>
+          <t>/news,603185,1244428765.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2068</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级</t>
+          <t>上机数控11月08日获沪股通增持73.86万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,51 +829,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-07 11:33</t>
+          <t>11-09 07:39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1243689028.html</t>
+          <t>/news,603185,1244426219.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：疫情对公司生产经营影响较小</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-07 11:11</t>
+          <t>11-08 13:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1243666187.html</t>
+          <t>/news,603185,1244191455.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
+          <t>上机数控11月07日获沪股通增持169.09万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1243413280.html</t>
+          <t>/news,603185,1243976549.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
+          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1243404444.html</t>
+          <t>/news,603185,1243971766.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>920</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控11月04日获沪股通增持132.99万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1243320027.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>2095</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1243316370.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 17:18</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1243220718.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,71 +1043,71 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,24 +1309,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>1295</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,51 +1949,51 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,22 +2003,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>731</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,24 +2621,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,93 +2685,93 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>上机数控10月14日被沪股通减持10.5万股</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-15 08:01</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1235513012.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>1787</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-17 18:25</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1235509828.html</t>
+          <t>/news,603185,1235959191.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>上机数控10月13日被沪股通减持52.04万股</t>
+          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-14 07:54</t>
+          <t>10-17 09:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1235082907.html</t>
+          <t>/news,603185,1235716836.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,71 +2867,71 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计5300.28万元（10-13）</t>
+          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 07:32</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1235079394.html</t>
+          <t>/news,603185,1235580324.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>上机数控10月12日被沪股通减持88.92万股</t>
+          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 07:59</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1234647366.html</t>
+          <t>/news,603185,1235576081.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计4498.97万元（10-12）</t>
+          <t>上机数控10月14日被沪股通减持10.5万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-13 07:41</t>
+          <t>10-15 08:01</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1234644441.html</t>
+          <t>/news,603185,1235513012.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>硅片新贵上机数控416亿狂飙突进 能否逆袭N型电池竞备赛？</t>
+          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-12 21:38</t>
+          <t>10-15 07:35</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1234578361.html</t>
+          <t>/news,603185,1235509828.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>上机数控10月11日获沪股通增持41.19万股</t>
+          <t>上机数控10月13日被沪股通减持52.04万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 07:44</t>
+          <t>10-14 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1234212012.html</t>
+          <t>/news,603185,1235082907.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,71 +467,71 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入3085.74万元，居光伏设备板块第十</t>
+          <t>上机数控11月14日被沪股通减持104.29万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1246100411.html</t>
+          <t>/news,603185,1246691002.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加2.85亿元，居光伏设备板块第一</t>
+          <t>上机数控：连续5日融资净买入累计1.78亿元（11-14）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 14:08</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1246094351.html</t>
+          <t>/news,603185,1246688133.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>895</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控11月11日被沪股通减持35.38万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:42</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1245985691.html</t>
+          <t>/news,603185,1246564019.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计1.33亿元（11-11）</t>
+          <t>上机数控本周融资净买入3085.74万元，居光伏设备板块第十</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-12 07:35</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1245984760.html</t>
+          <t>/news,603185,1246100411.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周沪股通持股市值增加2.85亿元，居光伏设备板块第一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 17:57</t>
+          <t>11-13 14:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1245892211.html</t>
+          <t>/news,603185,1246094351.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
+          <t>上机数控11月11日被沪股通减持35.38万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 07:42</t>
+          <t>11-12 07:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1245411139.html</t>
+          <t>/news,603185,1245985691.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
+          <t>上机数控：连续4日融资净买入累计1.33亿元（11-11）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 07:51</t>
+          <t>11-12 07:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1244891463.html</t>
+          <t>/news,603185,1245984760.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>726</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控11月09日被沪股通减持13.33万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 07:50</t>
+          <t>11-11 17:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1244891160.html</t>
+          <t>/news,603185,1245892211.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19960</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
+          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-09 20:56</t>
+          <t>11-11 07:42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1244834895.html</t>
+          <t>/news,603185,1245411139.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 16:01</t>
+          <t>11-10 07:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1244759948.html</t>
+          <t>/news,603185,1244891463.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
+          <t>上机数控11月09日被沪股通减持13.33万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-09 07:53</t>
+          <t>11-10 07:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1244428765.html</t>
+          <t>/news,603185,1244891160.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>20118</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上机数控11月08日获沪股通增持73.86万股</t>
+          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 07:39</t>
+          <t>11-09 20:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1244426219.html</t>
+          <t>/news,603185,1244834895.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控：疫情对公司生产经营影响较小</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-08 13:29</t>
+          <t>11-09 16:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1244191455.html</t>
+          <t>/news,603185,1244759948.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控11月07日获沪股通增持169.09万股</t>
+          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1243976549.html</t>
+          <t>/news,603185,1244428765.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
+          <t>上机数控11月08日获沪股通增持73.86万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1243971766.html</t>
+          <t>/news,603185,1244426219.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：疫情对公司生产经营影响较小</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-07 15:53</t>
+          <t>11-08 13:29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1243826687.html</t>
+          <t>/news,603185,1244191455.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2095</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级</t>
+          <t>上机数控11月07日获沪股通增持169.09万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,147 +989,147 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07 11:33</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1243689028.html</t>
+          <t>/news,603185,1243976549.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 11:11</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1243666187.html</t>
+          <t>/news,603185,1243971766.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1243413280.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1243404444.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控11月04日获沪股通增持132.99万股</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1243320027.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,71 +1139,71 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1243316370.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3628</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
+          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 17:18</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1243220718.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1295</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,61 +2003,61 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,61 +2099,61 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,93 +2845,93 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>1787</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:25</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235959191.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>上机数控10月14日被沪股通减持10.5万股</t>
+          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-15 08:01</t>
+          <t>10-17 09:58</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1235513012.html</t>
+          <t>/news,603185,1235716836.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计6894.67万元（10-14）</t>
+          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-15 07:35</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1235509828.html</t>
+          <t>/news,603185,1235580324.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>上机数控10月13日被沪股通减持52.04万股</t>
+          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-14 07:54</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1235082907.html</t>
+          <t>/news,603185,1235576081.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控11月14日被沪股通减持104.29万股</t>
+          <t>上机数控：融资净偿还4493.68万元，融资余额17.15亿元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-17 07:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1246691002.html</t>
+          <t>/news,603185,1247667295.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计1.78亿元（11-14）</t>
+          <t>上机数控11月16日被沪股通减持39.52万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-17 07:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1246688133.html</t>
+          <t>/news,603185,1247665031.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月15日被沪股通减持19.84万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-16 07:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1246564019.html</t>
+          <t>/news,603185,1247176871.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入3085.74万元，居光伏设备板块第十</t>
+          <t>上机数控：连续6日融资净买入累计1.79亿元（11-15）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-16 07:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1246100411.html</t>
+          <t>/news,603185,1247172395.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加2.85亿元，居光伏设备板块第一</t>
+          <t>上机数控11月14日被沪股通减持104.29万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 14:08</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1246094351.html</t>
+          <t>/news,603185,1246691002.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控11月11日被沪股通减持35.38万股</t>
+          <t>上机数控：连续5日融资净买入累计1.78亿元（11-14）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-12 07:42</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1245985691.html</t>
+          <t>/news,603185,1246688133.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计1.33亿元（11-11）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-12 07:35</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1245984760.html</t>
+          <t>/news,603185,1246564019.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周融资净买入3085.74万元，居光伏设备板块第十</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 17:57</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1245892211.html</t>
+          <t>/news,603185,1246100411.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
+          <t>上机数控本周沪股通持股市值增加2.85亿元，居光伏设备板块第一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 07:42</t>
+          <t>11-13 14:08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1245411139.html</t>
+          <t>/news,603185,1246094351.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
+          <t>上机数控11月11日被沪股通减持35.38万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 07:51</t>
+          <t>11-12 07:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1244891463.html</t>
+          <t>/news,603185,1245985691.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控11月09日被沪股通减持13.33万股</t>
+          <t>上机数控：连续4日融资净买入累计1.33亿元（11-11）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 07:50</t>
+          <t>11-12 07:35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1244891160.html</t>
+          <t>/news,603185,1245984760.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20118</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 20:56</t>
+          <t>11-11 17:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1244834895.html</t>
+          <t>/news,603185,1245892211.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 16:01</t>
+          <t>11-11 07:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1244759948.html</t>
+          <t>/news,603185,1245411139.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
+          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09 07:53</t>
+          <t>11-10 07:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1244428765.html</t>
+          <t>/news,603185,1244891463.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控11月08日获沪股通增持73.86万股</t>
+          <t>上机数控11月09日被沪股通减持13.33万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-09 07:39</t>
+          <t>11-10 07:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1244426219.html</t>
+          <t>/news,603185,1244891160.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>20223</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控：疫情对公司生产经营影响较小</t>
+          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-08 13:29</t>
+          <t>11-09 20:56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1244191455.html</t>
+          <t>/news,603185,1244834895.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控11月07日获沪股通增持169.09万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 16:01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1243976549.html</t>
+          <t>/news,603185,1244759948.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
+          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1243971766.html</t>
+          <t>/news,603185,1244428765.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月08日获沪股通增持73.86万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-07 15:53</t>
+          <t>11-09 07:39</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1243826687.html</t>
+          <t>/news,603185,1244426219.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级</t>
+          <t>上机数控：疫情对公司生产经营影响较小</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-07 11:33</t>
+          <t>11-08 13:29</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1243689028.html</t>
+          <t>/news,603185,1244191455.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控11月07日获沪股通增持169.09万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07 11:11</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1243666187.html</t>
+          <t>/news,603185,1243976549.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,71 +1139,71 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
+          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1243413280.html</t>
+          <t>/news,603185,1243971766.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>933</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1243404444.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>2140</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控11月04日获沪股通增持132.99万股</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,83 +1213,83 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1243320027.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1243316370.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3640</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 17:18</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1243220718.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控本周获沪股通增持4.39亿</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,71 +1619,71 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,24 +1693,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,61 +2195,61 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,44 +2493,44 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,12 +2749,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 18:25</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1235959191.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>光伏概念股走弱 TOPCON电池方向领跌</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-17 09:58</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1235716836.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入6894.67万元，居光伏设备板块第四</t>
+          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1235580324.html</t>
+          <t>/news,603185,1235960325.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加1.39亿元，居光伏设备板块第四</t>
+          <t>上机数控：子公司签订单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:27</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1235576081.html</t>
+          <t>/news,603185,1235960317.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还4493.68万元，融资余额17.15亿元（11-16）</t>
+          <t>上机数控11月17日被沪股通减持43.82万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 07:48</t>
+          <t>11-18 07:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1247667295.html</t>
+          <t>/news,603185,1248153565.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控11月16日被沪股通减持39.52万股</t>
+          <t>上机数控：融资净买入6221.02万元，两市排名第19（11-17）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:35</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1247665031.html</t>
+          <t>/news,603185,1248153320.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控11月15日被沪股通减持19.84万股</t>
+          <t>上机数控：融资净偿还4493.68万元，融资余额17.15亿元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 07:58</t>
+          <t>11-17 07:48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1247176871.html</t>
+          <t>/news,603185,1247667295.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控：连续6日融资净买入累计1.79亿元（11-15）</t>
+          <t>上机数控11月16日被沪股通减持39.52万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 07:31</t>
+          <t>11-17 07:35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1247172395.html</t>
+          <t>/news,603185,1247665031.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上机数控11月14日被沪股通减持104.29万股</t>
+          <t>上机数控11月15日被沪股通减持19.84万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-16 07:58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1246691002.html</t>
+          <t>/news,603185,1247176871.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计1.78亿元（11-14）</t>
+          <t>上机数控：连续6日融资净买入累计1.79亿元（11-15）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 07:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1246688133.html</t>
+          <t>/news,603185,1247172395.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月14日被沪股通减持104.29万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,83 +669,83 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1246564019.html</t>
+          <t>/news,603185,1246691002.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入3085.74万元，居光伏设备板块第十</t>
+          <t>上机数控：连续5日融资净买入累计1.78亿元（11-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1246100411.html</t>
+          <t>/news,603185,1246688133.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加2.85亿元，居光伏设备板块第一</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-13 14:08</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1246094351.html</t>
+          <t>/news,603185,1246564019.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控11月11日被沪股通减持35.38万股</t>
+          <t>上机数控本周融资净买入3085.74万元，居光伏设备板块第十</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-12 07:42</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1245985691.html</t>
+          <t>/news,603185,1246100411.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计1.33亿元（11-11）</t>
+          <t>上机数控本周沪股通持股市值增加2.85亿元，居光伏设备板块第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-12 07:35</t>
+          <t>11-13 14:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1245984760.html</t>
+          <t>/news,603185,1246094351.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月11日被沪股通减持35.38万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-11 17:57</t>
+          <t>11-12 07:42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1245892211.html</t>
+          <t>/news,603185,1245985691.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
+          <t>上机数控：连续4日融资净买入累计1.33亿元（11-11）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 07:42</t>
+          <t>11-12 07:35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1245411139.html</t>
+          <t>/news,603185,1245984760.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 07:51</t>
+          <t>11-11 17:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1244891463.html</t>
+          <t>/news,603185,1245892211.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控11月09日被沪股通减持13.33万股</t>
+          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 07:50</t>
+          <t>11-11 07:42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1244891160.html</t>
+          <t>/news,603185,1245411139.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20223</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
+          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-09 20:56</t>
+          <t>11-10 07:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1244834895.html</t>
+          <t>/news,603185,1244891463.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月09日被沪股通减持13.33万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-09 16:01</t>
+          <t>11-10 07:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1244759948.html</t>
+          <t>/news,603185,1244891160.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>20251</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
+          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 07:53</t>
+          <t>11-09 20:56</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1244428765.html</t>
+          <t>/news,603185,1244834895.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上机数控11月08日获沪股通增持73.86万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 07:39</t>
+          <t>11-09 16:01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1244426219.html</t>
+          <t>/news,603185,1244759948.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控：疫情对公司生产经营影响较小</t>
+          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-08 13:29</t>
+          <t>11-09 07:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1244191455.html</t>
+          <t>/news,603185,1244428765.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控11月07日获沪股通增持169.09万股</t>
+          <t>上机数控11月08日获沪股通增持73.86万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1243976549.html</t>
+          <t>/news,603185,1244426219.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
+          <t>上机数控：疫情对公司生产经营影响较小</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-08 13:29</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1243971766.html</t>
+          <t>/news,603185,1244191455.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月07日获沪股通增持169.09万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 15:53</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1243826687.html</t>
+          <t>/news,603185,1243976549.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2140</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级</t>
+          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,147 +1213,147 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07 11:33</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1243689028.html</t>
+          <t>/news,603185,1243971766.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>936</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 11:11</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1243666187.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>2145</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1243413280.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上机数控本周获沪股通增持4.39亿</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1243404444.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控11月04日获沪股通增持132.99万股</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1243320027.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
+          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1243316370.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3658</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 17:18</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1243220718.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,93 +1747,93 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,61 +2195,61 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>727</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>1470</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-17 20:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1235990109.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 19:01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1235966731.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235965765.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订N型硅材料产品销售合同</t>
+          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 18:39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1235960325.html</t>
+          <t>/news,603185,1235962011.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片销售合同</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1235960317.html</t>
+          <t>/news,603185,1235960326.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上机数控11月17日被沪股通减持43.82万股</t>
+          <t>上机数控本周融资净买入6502.01万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 07:51</t>
+          <t>11-20 15:06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603185,1248153565.html</t>
+          <t>/news,603185,1248768962.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入6221.02万元，两市排名第19（11-17）</t>
+          <t>上机数控本周被沪股通减持2.63亿元，周内减持市值两市排名第九</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 07:50</t>
+          <t>11-20 14:05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603185,1248153320.html</t>
+          <t>/news,603185,1248762790.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还4493.68万元，融资余额17.15亿元（11-16）</t>
+          <t>上机数控11月18日获沪股通增持4.08万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 07:48</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603185,1247667295.html</t>
+          <t>/news,603185,1248639367.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上机数控11月16日被沪股通减持39.52万股</t>
+          <t>上机数控：融资净买入129.84万元，融资余额17.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:35</t>
+          <t>11-19 07:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603185,1247665031.html</t>
+          <t>/news,603185,1248636402.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上机数控11月15日被沪股通减持19.84万股</t>
+          <t>注意！上机数控：部分监事及高管拟合计减持不超30.6万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 07:58</t>
+          <t>11-18 16:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603185,1247176871.html</t>
+          <t>/news,603185,1248532998.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上机数控：连续6日融资净买入累计1.79亿元（11-15）</t>
+          <t>上机数控11月17日被沪股通减持43.82万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 07:31</t>
+          <t>11-18 07:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603185,1247172395.html</t>
+          <t>/news,603185,1248153565.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上机数控11月14日被沪股通减持104.29万股</t>
+          <t>上机数控：融资净买入6221.02万元，两市排名第19（11-17）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-18 07:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603185,1246691002.html</t>
+          <t>/news,603185,1248153320.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上机数控：连续5日融资净买入累计1.78亿元（11-14）</t>
+          <t>上机数控：融资净偿还4493.68万元，融资余额17.15亿元（11-16）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-17 07:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603185,1246688133.html</t>
+          <t>/news,603185,1247667295.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控11月16日被沪股通减持39.52万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-17 07:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603185,1246564019.html</t>
+          <t>/news,603185,1247665031.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入3085.74万元，居光伏设备板块第十</t>
+          <t>上机数控11月15日被沪股通减持19.84万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-13 15:09</t>
+          <t>11-16 07:58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603185,1246100411.html</t>
+          <t>/news,603185,1247176871.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加2.85亿元，居光伏设备板块第一</t>
+          <t>上机数控：连续6日融资净买入累计1.79亿元（11-15）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-13 14:08</t>
+          <t>11-16 07:31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603185,1246094351.html</t>
+          <t>/news,603185,1247172395.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上机数控11月11日被沪股通减持35.38万股</t>
+          <t>上机数控11月14日被沪股通减持104.29万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-12 07:42</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603185,1245985691.html</t>
+          <t>/news,603185,1246691002.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净买入累计1.33亿元（11-11）</t>
+          <t>上机数控：连续5日融资净买入累计1.78亿元（11-14）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,24 +861,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-12 07:35</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603185,1245984760.html</t>
+          <t>/news,603185,1246688133.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-11 17:57</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603185,1245892211.html</t>
+          <t>/news,603185,1246564019.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
+          <t>上机数控本周融资净买入3085.74万元，居光伏设备板块第十</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 07:42</t>
+          <t>11-13 15:09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603185,1245411139.html</t>
+          <t>/news,603185,1246100411.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
+          <t>上机数控本周沪股通持股市值增加2.85亿元，居光伏设备板块第一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 07:51</t>
+          <t>11-13 14:08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603185,1244891463.html</t>
+          <t>/news,603185,1246094351.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上机数控11月09日被沪股通减持13.33万股</t>
+          <t>上机数控11月11日被沪股通减持35.38万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 07:50</t>
+          <t>11-12 07:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603185,1244891160.html</t>
+          <t>/news,603185,1245985691.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20251</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
+          <t>上机数控：连续4日融资净买入累计1.33亿元（11-11）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,24 +1021,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 20:56</t>
+          <t>11-12 07:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603185,1244834895.html</t>
+          <t>/news,603185,1245984760.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 16:01</t>
+          <t>11-11 17:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603185,1244759948.html</t>
+          <t>/news,603185,1245892211.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
+          <t>上机数控：连续3日融资净买入累计1.32亿元（11-10）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 07:53</t>
+          <t>11-11 07:42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603185,1244428765.html</t>
+          <t>/news,603185,1245411139.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上机数控11月08日获沪股通增持73.86万股</t>
+          <t>上机数控：融资净买入5638.53万元，两市排名第20（11-09）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-09 07:39</t>
+          <t>11-10 07:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603185,1244426219.html</t>
+          <t>/news,603185,1244891463.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上机数控：疫情对公司生产经营影响较小</t>
+          <t>上机数控11月09日被沪股通减持13.33万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 13:29</t>
+          <t>11-10 07:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603185,1244191455.html</t>
+          <t>/news,603185,1244891160.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>20418</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上机数控11月07日获沪股通增持169.09万股</t>
+          <t>紧急提醒！不及时操作可能亏损26% 这只可转债即将强赎！</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 20:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603185,1243976549.html</t>
+          <t>/news,603185,1244834895.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 16:01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603185,1243971766.html</t>
+          <t>/news,603185,1244759948.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净买入5058.82万元，融资余额16.32亿元（11-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 15:53</t>
+          <t>11-09 07:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603185,1243826687.html</t>
+          <t>/news,603185,1244428765.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2145</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级</t>
+          <t>上机数控11月08日获沪股通增持73.86万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 11:33</t>
+          <t>11-09 07:39</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603185,1243689028.html</t>
+          <t>/news,603185,1244426219.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：疫情对公司生产经营影响较小</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07 11:11</t>
+          <t>11-08 13:29</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603185,1243666187.html</t>
+          <t>/news,603185,1244191455.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
+          <t>上机数控11月07日获沪股通增持169.09万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 15:21</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603185,1243413280.html</t>
+          <t>/news,603185,1243976549.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
+          <t>上机数控：融资净偿还1.02亿元，两市排名第十（11-07）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603185,1243404444.html</t>
+          <t>/news,603185,1243971766.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>938</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上机数控11月04日获沪股通增持132.99万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-05 07:59</t>
+          <t>11-07 15:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603185,1243320027.html</t>
+          <t>/news,603185,1243826687.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>2158</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
+          <t>浙商证券给予上机数控买入评级</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-05 07:32</t>
+          <t>11-07 11:33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603185,1243316370.html</t>
+          <t>/news,603185,1243689028.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 17:18</t>
+          <t>11-07 11:11</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603185,1243220718.html</t>
+          <t>/news,603185,1243666187.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,71 +1491,71 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上机数控11月03日获沪股通增持50.79万股</t>
+          <t>上机数控本周融资净偿还2346.77万元，居光伏设备板块第七</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 07:51</t>
+          <t>11-06 15:21</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603185,1242817546.html</t>
+          <t>/news,603185,1243413280.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
+          <t>上机数控本周获沪股通增持4.39亿元，周内增持市值两市排名第八</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 07:32</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603185,1242814171.html</t>
+          <t>/news,603185,1243404444.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上机数控11月02日获沪股通增持100.46万股</t>
+          <t>上机数控11月04日获沪股通增持132.99万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603185,1242326365.html</t>
+          <t>/news,603185,1243320027.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
+          <t>上机数控：连续4日融资净偿还累计2609.88万元（11-04）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 07:32</t>
+          <t>11-05 07:32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603185,1242322105.html</t>
+          <t>/news,603185,1243316370.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：杨建良、杭虹、杨昊、董锡兴及弘元鼎创累计减持“上22转债”约292万张</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 17:28</t>
+          <t>11-04 17:18</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603185,1242194358.html</t>
+          <t>/news,603185,1243220718.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上机数控11月01日获沪股通增持20.73万股</t>
+          <t>上机数控11月03日获沪股通增持50.79万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 07:48</t>
+          <t>11-04 07:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603185,1241800873.html</t>
+          <t>/news,603185,1242817546.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
+          <t>上机数控：连续3日融资净偿还累计2419.05万元（11-03）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 07:42</t>
+          <t>11-04 07:32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603185,1241799963.html</t>
+          <t>/news,603185,1242814171.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上机数控10月31日获沪股通增持31.21万股</t>
+          <t>上机数控11月02日获沪股通增持100.46万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 07:58</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603185,1241298035.html</t>
+          <t>/news,603185,1242326365.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
+          <t>上机数控：融资净偿还2087.96万元，融资余额16.86亿元（11-02）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,24 +1757,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-03 07:32</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603185,1241294732.html</t>
+          <t>/news,603185,1242322105.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 16:48</t>
+          <t>11-02 17:28</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603185,1241161278.html</t>
+          <t>/news,603185,1242194358.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
+          <t>上机数控11月01日获沪股通增持20.73万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-02 07:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603185,1240713109.html</t>
+          <t>/news,603185,1241800873.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
+          <t>上机数控：融资净偿还205.03万元，融资余额17.07亿元（11-01）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-02 07:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603185,1240706624.html</t>
+          <t>/news,603185,1241799963.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
+          <t>上机数控10月31日获沪股通增持31.21万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-29 07:34</t>
+          <t>11-01 07:58</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603185,1240597619.html</t>
+          <t>/news,603185,1241298035.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：连续3日融资净买入累计2360.16万元（10-31）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 18:54</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603185,1240507991.html</t>
+          <t>/news,603185,1241294732.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上机数控10月27日获沪股通增持17.64万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 07:57</t>
+          <t>10-31 16:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603185,1240049180.html</t>
+          <t>/news,603185,1241161278.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
+          <t>上机数控本周融资净买入1426.02万元，居光伏设备板块第十三</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 07:40</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603185,1240046304.html</t>
+          <t>/news,603185,1240713109.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上机数控10月26日沪股通持有量847.54万股</t>
+          <t>上机数控本周沪股通持股市值增加7407.5万元，居光伏设备板块第四</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 07:58</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603185,1239498868.html</t>
+          <t>/news,603185,1240706624.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
+          <t>上机数控：融资净买入1661.28万元，融资余额17.06亿元（10-28）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 07:30</t>
+          <t>10-29 07:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603185,1239494359.html</t>
+          <t>/news,603185,1240597619.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 19:15</t>
+          <t>10-28 18:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603185,1239397759.html</t>
+          <t>/news,603185,1240507991.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上机数控10月25日获沪股通增持1.64万股</t>
+          <t>上机数控10月27日获沪股通增持17.64万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 07:50</t>
+          <t>10-28 07:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603185,1238968740.html</t>
+          <t>/news,603185,1240049180.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
+          <t>上机数控：融资净买入435.78万元，融资余额16.9亿元（10-27）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 07:34</t>
+          <t>10-28 07:40</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603185,1238966083.html</t>
+          <t>/news,603185,1240046304.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
+          <t>上机数控10月26日沪股通持有量847.54万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 07:32</t>
+          <t>10-27 07:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603185,1238444303.html</t>
+          <t>/news,603185,1239498868.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：融资净偿还509.8万元，融资余额16.85亿元（10-26）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 15:56</t>
+          <t>10-27 07:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603185,1238291237.html</t>
+          <t>/news,603185,1239494359.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>1310</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
+          <t>上机数控：杨建良累计减持 “上 22 转债”125万张</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 08:18</t>
+          <t>10-26 19:15</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603185,1237918698.html</t>
+          <t>/news,603185,1239397759.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控10月25日获沪股通增持1.64万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-24 08:13</t>
+          <t>10-26 07:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603185,1237918162.html</t>
+          <t>/news,603185,1238968740.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
+          <t>上机数控：融资净偿还676.38万元，融资余额16.9亿元（10-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-23 15:05</t>
+          <t>10-26 07:34</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603185,1237864038.html</t>
+          <t>/news,603185,1238966083.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
+          <t>上机数控：融资净买入515.15万元，融资余额16.97亿元（10-24）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 07:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603185,1237859962.html</t>
+          <t>/news,603185,1238444303.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上机数控10月21日获沪股通增持48.14万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-24 15:56</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603185,1237796756.html</t>
+          <t>/news,603185,1238291237.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
+          <t>浙商证券给予上机数控买入评级 徐州基地建设快速推进；迈向一体化 N 型光伏龙头</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-22 07:39</t>
+          <t>10-24 08:18</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603185,1237795559.html</t>
+          <t>/news,603185,1237918698.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-21 16:05</t>
+          <t>10-24 08:13</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603185,1237694402.html</t>
+          <t>/news,603185,1237918162.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,22 +2451,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>上机数控10月20日被沪股通减持10.35万股</t>
+          <t>上机数控本周融资净买入1.11亿元，居光伏设备板块第二</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-21 07:46</t>
+          <t>10-23 15:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603185,1237347598.html</t>
+          <t>/news,603185,1237864038.html</t>
         </is>
       </c>
     </row>
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
+          <t>上机数控本周沪股通持股市值减少1.28亿元，居光伏设备板块第五</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-21 07:31</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603185,1237345164.html</t>
+          <t>/news,603185,1237859962.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上机数控10月19日被沪股通减持15.26万股</t>
+          <t>上机数控10月21日获沪股通增持48.14万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603185,1236888624.html</t>
+          <t>/news,603185,1237796756.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
+          <t>上机数控：融资净偿还2974.07万元，融资余额16.92亿元（10-21）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 07:35</t>
+          <t>10-22 07:39</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603185,1236886619.html</t>
+          <t>/news,603185,1237795559.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>上机数控10月18日获沪股通增持13.07万股</t>
+          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 07:59</t>
+          <t>10-21 16:05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603185,1236441412.html</t>
+          <t>/news,603185,1237694402.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
+          <t>上机数控10月20日被沪股通减持10.35万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 07:37</t>
+          <t>10-21 07:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603185,1236437756.html</t>
+          <t>/news,603185,1237347598.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控：融资净买入3204.7万元，融资余额17.22亿元（10-20）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-18 11:57</t>
+          <t>10-21 07:31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603185,1236207153.html</t>
+          <t>/news,603185,1237345164.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>上机数控与一道新能签署战略合作协议</t>
+          <t>上机数控10月19日被沪股通减持15.26万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 11:18</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603185,1236190997.html</t>
+          <t>/news,603185,1236888624.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
+          <t>上机数控：融资净偿还2673.34万元，融资余额16.9亿元（10-19）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>上机数控资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 09:02</t>
+          <t>10-20 07:35</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603185,1236050481.html</t>
+          <t>/news,603185,1236886619.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>上机数控10月17日被沪股通减持125.36万股</t>
+          <t>上机数控10月18日获沪股通增持13.07万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-18 07:44</t>
+          <t>10-19 07:59</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603185,1236041424.html</t>
+          <t>/news,603185,1236441412.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
+          <t>上机数控：连续7日融资净买入累计2.04亿元（10-18）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 07:31</t>
+          <t>10-19 07:37</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603185,1236039672.html</t>
+          <t>/news,603185,1236437756.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 22:47</t>
+          <t>10-18 11:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603185,1236017381.html</t>
+          <t>/news,603185,1236207153.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>744</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>上机数控：签订62亿元单晶硅片销售合同</t>
+          <t>上机数控与一道新能签署战略合作协议</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 21:07</t>
+          <t>10-18 11:18</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603185,1235993015.html</t>
+          <t>/news,603185,1236190997.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订单晶硅片、N型硅材料产品销售合同</t>
+          <t>浙商证券维持上机数控买入评级 预计2022年净利润同比增长115.26%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>上机数控资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 20:55</t>
+          <t>10-18 09:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603185,1235990109.html</t>
+          <t>/news,603185,1236050481.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>上机数控：一道衢州、一道泰州拟向子公司采购单晶硅片、N型硅材料产品，数量分别为8.25亿片和3亿片</t>
+          <t>上机数控10月17日被沪股通减持125.36万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 19:01</t>
+          <t>10-18 07:44</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603185,1235966731.html</t>
+          <t>/news,603185,1236041424.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>上机数控：签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控：融资净买入1.28亿元，两市排名第五（10-17）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-17 18:57</t>
+          <t>10-18 07:31</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603185,1235965765.html</t>
+          <t>/news,603185,1236039672.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>上机数控：子公司签订62.04亿元单晶硅片销售合同</t>
+          <t>上机数控再签近百亿销售合同 N型硅材料首获巨额订单</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-17 18:39</t>
+          <t>10-17 22:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603185,1235962011.html</t>
+          <t>/news,603185,1236017381.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>上机数控：“上22转债”赎回登记日为11月15日</t>
+          <t>上机数控：签订62亿元单晶硅片销售合同</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 18:27</t>
+          <t>10-17 21:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603185,1235960326.html</t>
+          <t>/news,603185,1235993015.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603185.xlsx
+++ b/news_ann/news/tmp/603185.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>3481</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20418</t>
+          <t>20419</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1225,7 +1225,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1417,7 +1417,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2158</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1513,7 +1513,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2377,7 +2377,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
